--- a/pythonProject/projects/Comanda Alex Trifan/Comanda_W962ST2_Alex Trifan.xlsx
+++ b/pythonProject/projects/Comanda Alex Trifan/Comanda_W962ST2_Alex Trifan.xlsx
@@ -1693,29 +1693,23 @@
         </is>
       </c>
       <c r="B10" s="105" t="n">
-        <v>600</v>
+        <v>943</v>
       </c>
       <c r="C10" s="105" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="D10" s="105" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="105" t="inlineStr">
         <is>
-          <t>t1.jos</t>
+          <t>j2.jos</t>
         </is>
       </c>
-      <c r="F10" s="105" t="n">
-        <v>1</v>
-      </c>
+      <c r="F10" s="105" t="inlineStr"/>
       <c r="G10" s="105" t="inlineStr"/>
-      <c r="H10" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="H10" s="105" t="inlineStr"/>
+      <c r="I10" s="106" t="inlineStr"/>
       <c r="J10" s="106" t="n"/>
       <c r="K10" s="107" t="n"/>
       <c r="W10" s="49">
@@ -1794,26 +1788,24 @@
         </is>
       </c>
       <c r="B11" s="108" t="n">
-        <v>1732</v>
+        <v>694</v>
       </c>
       <c r="C11" s="108" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="D11" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="108" t="inlineStr">
         <is>
-          <t>t1.lat</t>
+          <t>j2.lat1</t>
         </is>
       </c>
       <c r="F11" s="108" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="108" t="inlineStr"/>
-      <c r="H11" s="108" t="n">
-        <v>1</v>
-      </c>
+      <c r="H11" s="108" t="inlineStr"/>
       <c r="I11" s="109" t="inlineStr"/>
       <c r="J11" s="106" t="n"/>
       <c r="K11" s="110" t="n"/>
@@ -1894,26 +1886,24 @@
         </is>
       </c>
       <c r="B12" s="108" t="n">
-        <v>1732</v>
+        <v>694</v>
       </c>
       <c r="C12" s="108" t="n">
-        <v>650</v>
+        <v>440</v>
       </c>
       <c r="D12" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="108" t="inlineStr">
         <is>
-          <t>t1.lat</t>
+          <t>j2.lat2</t>
         </is>
       </c>
       <c r="F12" s="108" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="108" t="inlineStr"/>
-      <c r="H12" s="108" t="n">
-        <v>1</v>
-      </c>
+      <c r="H12" s="108" t="inlineStr"/>
       <c r="I12" s="109" t="inlineStr"/>
       <c r="J12" s="106" t="n"/>
       <c r="K12" s="110" t="n"/>
@@ -1993,17 +1983,17 @@
         </is>
       </c>
       <c r="B13" s="108" t="n">
-        <v>564</v>
+        <v>907</v>
       </c>
       <c r="C13" s="108" t="n">
-        <v>649</v>
+        <v>100</v>
       </c>
       <c r="D13" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="108" t="inlineStr">
         <is>
-          <t>t1.sus</t>
+          <t>j2.leg</t>
         </is>
       </c>
       <c r="F13" s="108" t="n">
@@ -2091,17 +2081,17 @@
         </is>
       </c>
       <c r="B14" s="108" t="n">
-        <v>564</v>
+        <v>907</v>
       </c>
       <c r="C14" s="108" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="D14" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="108" t="inlineStr">
         <is>
-          <t>t1.sep.h</t>
+          <t>j2.leg</t>
         </is>
       </c>
       <c r="F14" s="108" t="n">
@@ -2189,17 +2179,17 @@
         </is>
       </c>
       <c r="B15" s="108" t="n">
-        <v>564</v>
+        <v>432</v>
       </c>
       <c r="C15" s="108" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="D15" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="108" t="inlineStr">
         <is>
-          <t>t1.sep.h</t>
+          <t>j2.leg</t>
         </is>
       </c>
       <c r="F15" s="108" t="n">
@@ -2287,21 +2277,21 @@
         </is>
       </c>
       <c r="B16" s="108" t="n">
-        <v>564</v>
+        <v>907</v>
       </c>
       <c r="C16" s="108" t="n">
-        <v>650</v>
+        <v>462</v>
       </c>
       <c r="D16" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="108" t="inlineStr">
         <is>
-          <t>t1.sep.h</t>
+          <t>j2pol</t>
         </is>
       </c>
       <c r="F16" s="108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="108" t="inlineStr"/>
       <c r="H16" s="108" t="inlineStr"/>
@@ -2385,21 +2375,23 @@
         </is>
       </c>
       <c r="B17" s="108" t="n">
-        <v>564</v>
+        <v>694</v>
       </c>
       <c r="C17" s="108" t="n">
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="D17" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="108" t="inlineStr">
         <is>
-          <t>t1.pol</t>
+          <t>j2.sp2</t>
         </is>
       </c>
-      <c r="F17" s="108" t="n">
-        <v>2</v>
+      <c r="F17" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G17" s="108" t="inlineStr"/>
       <c r="H17" s="108" t="inlineStr"/>
@@ -2477,31 +2469,15 @@
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" s="50">
-      <c r="A18" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B18" s="108" t="n">
-        <v>564</v>
-      </c>
-      <c r="C18" s="108" t="n">
-        <v>630</v>
-      </c>
-      <c r="D18" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="108" t="inlineStr">
-        <is>
-          <t>t1.pol</t>
-        </is>
-      </c>
-      <c r="F18" s="108" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="108" t="inlineStr"/>
-      <c r="H18" s="108" t="inlineStr"/>
-      <c r="I18" s="109" t="inlineStr"/>
+      <c r="A18" s="108" t="n"/>
+      <c r="B18" s="108" t="n"/>
+      <c r="C18" s="108" t="n"/>
+      <c r="D18" s="108" t="n"/>
+      <c r="E18" s="108" t="n"/>
+      <c r="F18" s="108" t="n"/>
+      <c r="G18" s="108" t="n"/>
+      <c r="H18" s="108" t="n"/>
+      <c r="I18" s="109" t="n"/>
       <c r="J18" s="106" t="n"/>
       <c r="K18" s="110" t="n"/>
       <c r="M18" s="66" t="n"/>
@@ -2575,31 +2551,15 @@
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" s="50">
-      <c r="A19" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B19" s="108" t="n">
-        <v>564</v>
-      </c>
-      <c r="C19" s="108" t="n">
-        <v>630</v>
-      </c>
-      <c r="D19" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="108" t="inlineStr">
-        <is>
-          <t>t1.pol</t>
-        </is>
-      </c>
-      <c r="F19" s="108" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="108" t="inlineStr"/>
-      <c r="H19" s="108" t="inlineStr"/>
-      <c r="I19" s="109" t="inlineStr"/>
+      <c r="A19" s="108" t="n"/>
+      <c r="B19" s="108" t="n"/>
+      <c r="C19" s="108" t="n"/>
+      <c r="D19" s="108" t="n"/>
+      <c r="E19" s="108" t="n"/>
+      <c r="F19" s="108" t="n"/>
+      <c r="G19" s="108" t="n"/>
+      <c r="H19" s="108" t="n"/>
+      <c r="I19" s="109" t="n"/>
       <c r="J19" s="106" t="n"/>
       <c r="K19" s="110" t="n"/>
       <c r="M19" s="66" t="n"/>
@@ -2673,31 +2633,15 @@
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" s="50">
-      <c r="A20" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B20" s="108" t="n">
-        <v>564</v>
-      </c>
-      <c r="C20" s="108" t="n">
-        <v>630</v>
-      </c>
-      <c r="D20" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="108" t="inlineStr">
-        <is>
-          <t>t1.pol</t>
-        </is>
-      </c>
-      <c r="F20" s="108" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="108" t="inlineStr"/>
-      <c r="H20" s="108" t="inlineStr"/>
-      <c r="I20" s="109" t="inlineStr"/>
+      <c r="A20" s="108" t="n"/>
+      <c r="B20" s="108" t="n"/>
+      <c r="C20" s="108" t="n"/>
+      <c r="D20" s="108" t="n"/>
+      <c r="E20" s="108" t="n"/>
+      <c r="F20" s="108" t="n"/>
+      <c r="G20" s="108" t="n"/>
+      <c r="H20" s="108" t="n"/>
+      <c r="I20" s="109" t="n"/>
       <c r="J20" s="106" t="n"/>
       <c r="K20" s="110" t="n"/>
       <c r="M20" s="48" t="n"/>
@@ -2771,29 +2715,15 @@
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" s="50">
-      <c r="A21" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B21" s="108" t="n">
-        <v>950</v>
-      </c>
-      <c r="C21" s="108" t="n">
-        <v>953</v>
-      </c>
-      <c r="D21" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="108" t="inlineStr">
-        <is>
-          <t>j2.jos</t>
-        </is>
-      </c>
-      <c r="F21" s="108" t="inlineStr"/>
-      <c r="G21" s="108" t="inlineStr"/>
-      <c r="H21" s="108" t="inlineStr"/>
-      <c r="I21" s="109" t="inlineStr"/>
+      <c r="A21" s="108" t="n"/>
+      <c r="B21" s="108" t="n"/>
+      <c r="C21" s="108" t="n"/>
+      <c r="D21" s="108" t="n"/>
+      <c r="E21" s="108" t="n"/>
+      <c r="F21" s="108" t="n"/>
+      <c r="G21" s="108" t="n"/>
+      <c r="H21" s="108" t="n"/>
+      <c r="I21" s="109" t="n"/>
       <c r="J21" s="109" t="n"/>
       <c r="K21" s="110" t="n"/>
       <c r="M21" s="48" t="n"/>
@@ -2867,31 +2797,15 @@
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" s="50">
-      <c r="A22" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B22" s="108" t="n">
-        <v>694</v>
-      </c>
-      <c r="C22" s="108" t="n">
-        <v>450</v>
-      </c>
-      <c r="D22" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="108" t="inlineStr">
-        <is>
-          <t>j2.lat1</t>
-        </is>
-      </c>
-      <c r="F22" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="108" t="inlineStr"/>
-      <c r="H22" s="108" t="inlineStr"/>
-      <c r="I22" s="109" t="inlineStr"/>
+      <c r="A22" s="108" t="n"/>
+      <c r="B22" s="108" t="n"/>
+      <c r="C22" s="108" t="n"/>
+      <c r="D22" s="108" t="n"/>
+      <c r="E22" s="108" t="n"/>
+      <c r="F22" s="108" t="n"/>
+      <c r="G22" s="108" t="n"/>
+      <c r="H22" s="108" t="n"/>
+      <c r="I22" s="109" t="n"/>
       <c r="J22" s="109" t="n"/>
       <c r="K22" s="110" t="n"/>
       <c r="M22" s="48" t="n"/>
@@ -2965,31 +2879,15 @@
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" s="50">
-      <c r="A23" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B23" s="108" t="n">
-        <v>694</v>
-      </c>
-      <c r="C23" s="108" t="n">
-        <v>500</v>
-      </c>
-      <c r="D23" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="108" t="inlineStr">
-        <is>
-          <t>j2.lat2</t>
-        </is>
-      </c>
-      <c r="F23" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="108" t="inlineStr"/>
-      <c r="H23" s="108" t="inlineStr"/>
-      <c r="I23" s="109" t="inlineStr"/>
+      <c r="A23" s="108" t="n"/>
+      <c r="B23" s="108" t="n"/>
+      <c r="C23" s="108" t="n"/>
+      <c r="D23" s="108" t="n"/>
+      <c r="E23" s="108" t="n"/>
+      <c r="F23" s="108" t="n"/>
+      <c r="G23" s="108" t="n"/>
+      <c r="H23" s="108" t="n"/>
+      <c r="I23" s="109" t="n"/>
       <c r="J23" s="109" t="n"/>
       <c r="K23" s="110" t="n"/>
       <c r="M23" s="66" t="n"/>
@@ -3063,29 +2961,15 @@
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" s="50">
-      <c r="A24" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B24" s="108" t="n">
-        <v>935</v>
-      </c>
-      <c r="C24" s="108" t="n">
-        <v>694</v>
-      </c>
-      <c r="D24" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="108" t="inlineStr">
-        <is>
-          <t>j2.spate</t>
-        </is>
-      </c>
-      <c r="F24" s="108" t="inlineStr"/>
-      <c r="G24" s="108" t="inlineStr"/>
-      <c r="H24" s="108" t="inlineStr"/>
-      <c r="I24" s="109" t="inlineStr"/>
+      <c r="A24" s="108" t="n"/>
+      <c r="B24" s="108" t="n"/>
+      <c r="C24" s="108" t="n"/>
+      <c r="D24" s="108" t="n"/>
+      <c r="E24" s="108" t="n"/>
+      <c r="F24" s="108" t="n"/>
+      <c r="G24" s="108" t="n"/>
+      <c r="H24" s="108" t="n"/>
+      <c r="I24" s="109" t="n"/>
       <c r="J24" s="109" t="n"/>
       <c r="K24" s="110" t="n"/>
       <c r="W24" s="49">
@@ -3158,31 +3042,15 @@
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1" s="50">
-      <c r="A25" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B25" s="108" t="n">
-        <v>914</v>
-      </c>
-      <c r="C25" s="108" t="n">
-        <v>100</v>
-      </c>
-      <c r="D25" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="108" t="inlineStr">
-        <is>
-          <t>j2.leg</t>
-        </is>
-      </c>
-      <c r="F25" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="108" t="inlineStr"/>
-      <c r="H25" s="108" t="inlineStr"/>
-      <c r="I25" s="109" t="inlineStr"/>
+      <c r="A25" s="108" t="n"/>
+      <c r="B25" s="108" t="n"/>
+      <c r="C25" s="108" t="n"/>
+      <c r="D25" s="108" t="n"/>
+      <c r="E25" s="108" t="n"/>
+      <c r="F25" s="108" t="n"/>
+      <c r="G25" s="108" t="n"/>
+      <c r="H25" s="108" t="n"/>
+      <c r="I25" s="109" t="n"/>
       <c r="J25" s="109" t="n"/>
       <c r="K25" s="110" t="n"/>
       <c r="W25" s="49">
@@ -3255,31 +3123,15 @@
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1" s="50">
-      <c r="A26" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B26" s="108" t="n">
-        <v>914</v>
-      </c>
-      <c r="C26" s="108" t="n">
-        <v>100</v>
-      </c>
-      <c r="D26" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="108" t="inlineStr">
-        <is>
-          <t>j2.leg</t>
-        </is>
-      </c>
-      <c r="F26" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="108" t="inlineStr"/>
-      <c r="H26" s="108" t="inlineStr"/>
-      <c r="I26" s="109" t="inlineStr"/>
+      <c r="A26" s="108" t="n"/>
+      <c r="B26" s="108" t="n"/>
+      <c r="C26" s="108" t="n"/>
+      <c r="D26" s="108" t="n"/>
+      <c r="E26" s="108" t="n"/>
+      <c r="F26" s="108" t="n"/>
+      <c r="G26" s="108" t="n"/>
+      <c r="H26" s="108" t="n"/>
+      <c r="I26" s="109" t="n"/>
       <c r="J26" s="109" t="n"/>
       <c r="K26" s="110" t="n"/>
       <c r="W26" s="49">
@@ -3352,31 +3204,15 @@
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" s="50">
-      <c r="A27" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B27" s="108" t="n">
-        <v>485</v>
-      </c>
-      <c r="C27" s="108" t="n">
-        <v>100</v>
-      </c>
-      <c r="D27" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="108" t="inlineStr">
-        <is>
-          <t>j2.leg</t>
-        </is>
-      </c>
-      <c r="F27" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="108" t="inlineStr"/>
-      <c r="H27" s="108" t="inlineStr"/>
-      <c r="I27" s="109" t="inlineStr"/>
+      <c r="A27" s="108" t="n"/>
+      <c r="B27" s="108" t="n"/>
+      <c r="C27" s="108" t="n"/>
+      <c r="D27" s="108" t="n"/>
+      <c r="E27" s="108" t="n"/>
+      <c r="F27" s="108" t="n"/>
+      <c r="G27" s="108" t="n"/>
+      <c r="H27" s="108" t="n"/>
+      <c r="I27" s="109" t="n"/>
       <c r="J27" s="109" t="n"/>
       <c r="K27" s="110" t="n"/>
       <c r="W27" s="49">
@@ -3449,31 +3285,15 @@
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1" s="50">
-      <c r="A28" s="108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B28" s="108" t="n">
-        <v>932</v>
-      </c>
-      <c r="C28" s="108" t="n">
-        <v>483</v>
-      </c>
-      <c r="D28" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="108" t="inlineStr">
-        <is>
-          <t>j2pol</t>
-        </is>
-      </c>
-      <c r="F28" s="108" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" s="108" t="inlineStr"/>
-      <c r="H28" s="108" t="inlineStr"/>
-      <c r="I28" s="109" t="inlineStr"/>
+      <c r="A28" s="108" t="n"/>
+      <c r="B28" s="108" t="n"/>
+      <c r="C28" s="108" t="n"/>
+      <c r="D28" s="108" t="n"/>
+      <c r="E28" s="108" t="n"/>
+      <c r="F28" s="108" t="n"/>
+      <c r="G28" s="108" t="n"/>
+      <c r="H28" s="108" t="n"/>
+      <c r="I28" s="109" t="n"/>
       <c r="J28" s="109" t="n"/>
       <c r="K28" s="110" t="n"/>
       <c r="W28" s="49">
